--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H2">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>0.7560178109369998</v>
+        <v>5.640386988113779</v>
       </c>
       <c r="R2">
-        <v>6.804160298433</v>
+        <v>50.763482893024</v>
       </c>
       <c r="S2">
-        <v>0.01745947935219403</v>
+        <v>0.1040250619993825</v>
       </c>
       <c r="T2">
-        <v>0.01745947935219403</v>
+        <v>0.1040250619993825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H3">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.120773020182</v>
+        <v>0.8051309858639999</v>
       </c>
       <c r="R3">
-        <v>1.086957181638</v>
+        <v>7.246178872775999</v>
       </c>
       <c r="S3">
-        <v>0.002789132771298501</v>
+        <v>0.01484894580790722</v>
       </c>
       <c r="T3">
-        <v>0.002789132771298502</v>
+        <v>0.01484894580790722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H4">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.1839958325366667</v>
+        <v>0.9549236598888887</v>
       </c>
       <c r="R4">
-        <v>1.65596249283</v>
+        <v>8.594312939</v>
       </c>
       <c r="S4">
-        <v>0.004249200736530507</v>
+        <v>0.01761155628753022</v>
       </c>
       <c r="T4">
-        <v>0.004249200736530507</v>
+        <v>0.01761155628753023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,60 +729,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.449095666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H5">
-        <v>16.347287</v>
+        <v>3.628972</v>
       </c>
       <c r="I5">
-        <v>0.7356749981998848</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J5">
-        <v>0.7356749981998849</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>22.703390089479</v>
+        <v>0.09747217182444445</v>
       </c>
       <c r="R5">
-        <v>204.330510805311</v>
+        <v>0.8772495464200001</v>
       </c>
       <c r="S5">
-        <v>0.5243122116406023</v>
+        <v>0.001797668978851945</v>
       </c>
       <c r="T5">
-        <v>0.5243122116406024</v>
+        <v>0.001797668978851946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.449095666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H6">
-        <v>16.347287</v>
+        <v>3.628972</v>
       </c>
       <c r="I6">
-        <v>0.7356749981998848</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J6">
-        <v>0.7356749981998849</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>3.626841788394</v>
+        <v>0.20227889928</v>
       </c>
       <c r="R6">
-        <v>32.641576095546</v>
+        <v>1.82051009352</v>
       </c>
       <c r="S6">
-        <v>0.08375830357707841</v>
+        <v>0.00373060839320275</v>
       </c>
       <c r="T6">
-        <v>0.08375830357707842</v>
+        <v>0.003730608393202751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H7">
         <v>16.347287</v>
       </c>
       <c r="I7">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J7">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +871,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>5.525437496956668</v>
+        <v>25.40802874361155</v>
       </c>
       <c r="R7">
-        <v>49.72893747261001</v>
+        <v>228.672258692504</v>
       </c>
       <c r="S7">
-        <v>0.1276044829822041</v>
+        <v>0.4685975928435652</v>
       </c>
       <c r="T7">
-        <v>0.1276044829822041</v>
+        <v>0.4685975928435653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2617743333333333</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H8">
-        <v>0.785323</v>
+        <v>16.347287</v>
       </c>
       <c r="I8">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J8">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,60 +933,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>1.090669932891</v>
+        <v>3.626841788393999</v>
       </c>
       <c r="R8">
-        <v>9.816029396018999</v>
+        <v>32.64157609554599</v>
       </c>
       <c r="S8">
-        <v>0.02518793723889675</v>
+        <v>0.06688946036764851</v>
       </c>
       <c r="T8">
-        <v>0.02518793723889675</v>
+        <v>0.06688946036764852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2617743333333333</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H9">
-        <v>0.785323</v>
+        <v>16.347287</v>
       </c>
       <c r="I9">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J9">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,104 +995,104 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>0.174233331426</v>
+        <v>4.301606937527776</v>
       </c>
       <c r="R9">
-        <v>1.568099982834</v>
+        <v>38.71446243774999</v>
       </c>
       <c r="S9">
-        <v>0.004023745483887445</v>
+        <v>0.07933408280607043</v>
       </c>
       <c r="T9">
-        <v>0.004023745483887445</v>
+        <v>0.07933408280607045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2617743333333333</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H10">
-        <v>0.785323</v>
+        <v>16.347287</v>
       </c>
       <c r="I10">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J10">
-        <v>0.035341796875</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>0.2654417917433334</v>
+        <v>0.4390790469938888</v>
       </c>
       <c r="R10">
-        <v>2.38897612569</v>
+        <v>3.951711422944999</v>
       </c>
       <c r="S10">
-        <v>0.006130114152215805</v>
+        <v>0.008097888528291117</v>
       </c>
       <c r="T10">
-        <v>0.006130114152215806</v>
+        <v>0.008097888528291118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,78 +1101,78 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7866479999999999</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H11">
-        <v>2.359944</v>
+        <v>16.347287</v>
       </c>
       <c r="I11">
-        <v>0.1062042770737327</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J11">
-        <v>0.1062042770737327</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>3.277530346247999</v>
+        <v>0.9111977773799999</v>
       </c>
       <c r="R11">
-        <v>29.49777311623199</v>
+        <v>8.20077999642</v>
       </c>
       <c r="S11">
-        <v>0.07569130327178873</v>
+        <v>0.01680512445075195</v>
       </c>
       <c r="T11">
-        <v>0.07569130327178873</v>
+        <v>0.01680512445075195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7866479999999999</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H12">
-        <v>2.359944</v>
+        <v>1.514153</v>
       </c>
       <c r="I12">
-        <v>0.1062042770737327</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J12">
-        <v>0.1062042770737327</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,60 +1181,60 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>0.5235818957279998</v>
+        <v>2.353396190219556</v>
       </c>
       <c r="R12">
-        <v>4.712237061551999</v>
+        <v>21.180565711976</v>
       </c>
       <c r="S12">
-        <v>0.01209160308844548</v>
+        <v>0.04340343758550657</v>
       </c>
       <c r="T12">
-        <v>0.01209160308844548</v>
+        <v>0.04340343758550657</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7866479999999999</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H13">
-        <v>2.359944</v>
+        <v>1.514153</v>
       </c>
       <c r="I13">
-        <v>0.1062042770737327</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J13">
-        <v>0.1062042770737327</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>0.79766893848</v>
+        <v>0.3359330128859999</v>
       </c>
       <c r="R13">
-        <v>7.179020446319999</v>
+        <v>3.023397115973999</v>
       </c>
       <c r="S13">
-        <v>0.01842137071349849</v>
+        <v>0.006195577106100609</v>
       </c>
       <c r="T13">
-        <v>0.01842137071349849</v>
+        <v>0.006195577106100609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1678953333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H14">
-        <v>0.503686</v>
+        <v>1.514153</v>
       </c>
       <c r="I14">
-        <v>0.02266732070852534</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J14">
-        <v>0.02266732070852535</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,163 +1305,163 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.166450999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N14">
-        <v>12.499353</v>
+        <v>2.36825</v>
       </c>
       <c r="O14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q14">
-        <v>0.6995276794619998</v>
+        <v>0.3984325380277777</v>
       </c>
       <c r="R14">
-        <v>6.295749115157999</v>
+        <v>3.585892842249999</v>
       </c>
       <c r="S14">
-        <v>0.01615489595505409</v>
+        <v>0.007348249252800173</v>
       </c>
       <c r="T14">
-        <v>0.0161548959550541</v>
+        <v>0.007348249252800173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5047176666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.514153</v>
+      </c>
+      <c r="I15">
+        <v>0.05925388349609548</v>
+      </c>
+      <c r="J15">
+        <v>0.05925388349609547</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.1678953333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.503686</v>
-      </c>
-      <c r="I15">
-        <v>0.02266732070852534</v>
-      </c>
-      <c r="J15">
-        <v>0.02266732070852535</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.6655859999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N15">
-        <v>1.996758</v>
+        <v>0.241735</v>
       </c>
       <c r="O15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q15">
-        <v>0.111748783332</v>
+        <v>0.04066930838388889</v>
       </c>
       <c r="R15">
-        <v>1.005739049988</v>
+        <v>0.366023775455</v>
       </c>
       <c r="S15">
-        <v>0.002580726997423138</v>
+        <v>0.0007500597627470284</v>
       </c>
       <c r="T15">
-        <v>0.002580726997423139</v>
+        <v>0.0007500597627470285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5047176666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.514153</v>
+      </c>
+      <c r="I16">
+        <v>0.05925388349609548</v>
+      </c>
+      <c r="J16">
+        <v>0.05925388349609547</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1678953333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.503686</v>
-      </c>
-      <c r="I16">
-        <v>0.02266732070852534</v>
-      </c>
-      <c r="J16">
-        <v>0.02266732070852535</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>1.01401</v>
+        <v>0.16722</v>
       </c>
       <c r="N16">
-        <v>3.04203</v>
+        <v>0.50166</v>
       </c>
       <c r="O16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q16">
-        <v>0.1702475469533333</v>
+        <v>0.08439888822</v>
       </c>
       <c r="R16">
-        <v>1.53222792258</v>
+        <v>0.7595899939799999</v>
       </c>
       <c r="S16">
-        <v>0.00393169775604811</v>
+        <v>0.00155655978894109</v>
       </c>
       <c r="T16">
-        <v>0.00393169775604811</v>
+        <v>0.00155655978894109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5600663333333333</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H17">
-        <v>1.680199</v>
+        <v>3.531941</v>
       </c>
       <c r="I17">
-        <v>0.0756137942828341</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J17">
-        <v>0.07561379428283412</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,39 +1491,39 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N17">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q17">
-        <v>2.333488934583</v>
+        <v>5.489575025430223</v>
       </c>
       <c r="R17">
-        <v>21.001400411247</v>
+        <v>49.406175228872</v>
       </c>
       <c r="S17">
-        <v>0.05388960588300238</v>
+        <v>0.1012436528865918</v>
       </c>
       <c r="T17">
-        <v>0.05388960588300239</v>
+        <v>0.1012436528865918</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5600663333333333</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H18">
-        <v>1.680199</v>
+        <v>3.531941</v>
       </c>
       <c r="I18">
-        <v>0.0756137942828341</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J18">
-        <v>0.07561379428283412</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,33 +1559,33 @@
         <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q18">
-        <v>0.3727723105379999</v>
+        <v>0.7836034941419998</v>
       </c>
       <c r="R18">
-        <v>3.354950794842</v>
+        <v>7.052431447277999</v>
       </c>
       <c r="S18">
-        <v>0.008608805724882885</v>
+        <v>0.01445191654984542</v>
       </c>
       <c r="T18">
-        <v>0.008608805724882885</v>
+        <v>0.01445191654984542</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5600663333333333</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H19">
-        <v>1.680199</v>
+        <v>3.531941</v>
       </c>
       <c r="I19">
-        <v>0.0756137942828341</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J19">
-        <v>0.07561379428283412</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,462 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N19">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q19">
-        <v>0.5679128626633334</v>
+        <v>0.9293910303611109</v>
       </c>
       <c r="R19">
-        <v>5.11121576397</v>
+        <v>8.364519273249998</v>
       </c>
       <c r="S19">
-        <v>0.01311538267494884</v>
+        <v>0.01714066069557323</v>
       </c>
       <c r="T19">
-        <v>0.01311538267494884</v>
+        <v>0.01714066069557323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.177313666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.531941</v>
+      </c>
+      <c r="I20">
+        <v>0.1382166931142909</v>
+      </c>
+      <c r="J20">
+        <v>0.1382166931142909</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>0.09486597307055555</v>
+      </c>
+      <c r="R20">
+        <v>0.853793757635</v>
+      </c>
+      <c r="S20">
+        <v>0.001749603130262597</v>
+      </c>
+      <c r="T20">
+        <v>0.001749603130262597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.177313666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.531941</v>
+      </c>
+      <c r="I21">
+        <v>0.1382166931142909</v>
+      </c>
+      <c r="J21">
+        <v>0.1382166931142909</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>0.19687039134</v>
+      </c>
+      <c r="R21">
+        <v>1.77183352206</v>
+      </c>
+      <c r="S21">
+        <v>0.003630859852017848</v>
+      </c>
+      <c r="T21">
+        <v>0.003630859852017848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.177099</v>
+      </c>
+      <c r="H22">
+        <v>0.531297</v>
+      </c>
+      <c r="I22">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="J22">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N22">
+        <v>13.988392</v>
+      </c>
+      <c r="O22">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P22">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q22">
+        <v>0.8257767449360001</v>
+      </c>
+      <c r="R22">
+        <v>7.431990704424001</v>
+      </c>
+      <c r="S22">
+        <v>0.01522971336375313</v>
+      </c>
+      <c r="T22">
+        <v>0.01522971336375313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.177099</v>
+      </c>
+      <c r="H23">
+        <v>0.531297</v>
+      </c>
+      <c r="I23">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="J23">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.996758</v>
+      </c>
+      <c r="O23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q23">
+        <v>0.117874615014</v>
+      </c>
+      <c r="R23">
+        <v>1.060871535126</v>
+      </c>
+      <c r="S23">
+        <v>0.00217394908555472</v>
+      </c>
+      <c r="T23">
+        <v>0.00217394908555472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.177099</v>
+      </c>
+      <c r="H24">
+        <v>0.531297</v>
+      </c>
+      <c r="I24">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="J24">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N24">
+        <v>2.36825</v>
+      </c>
+      <c r="O24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q24">
+        <v>0.13980490225</v>
+      </c>
+      <c r="R24">
+        <v>1.25824412025</v>
+      </c>
+      <c r="S24">
+        <v>0.002578407058774756</v>
+      </c>
+      <c r="T24">
+        <v>0.002578407058774757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.177099</v>
+      </c>
+      <c r="H25">
+        <v>0.531297</v>
+      </c>
+      <c r="I25">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="J25">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.241735</v>
+      </c>
+      <c r="O25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q25">
+        <v>0.014270342255</v>
+      </c>
+      <c r="R25">
+        <v>0.128433080295</v>
+      </c>
+      <c r="S25">
+        <v>0.0002631864162790735</v>
+      </c>
+      <c r="T25">
+        <v>0.0002631864162790735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.177099</v>
+      </c>
+      <c r="H26">
+        <v>0.531297</v>
+      </c>
+      <c r="I26">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="J26">
+        <v>0.02079143292641169</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.16722</v>
+      </c>
+      <c r="N26">
+        <v>0.50166</v>
+      </c>
+      <c r="O26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q26">
+        <v>0.02961449478</v>
+      </c>
+      <c r="R26">
+        <v>0.26653045302</v>
+      </c>
+      <c r="S26">
+        <v>0.0005461770020500136</v>
+      </c>
+      <c r="T26">
+        <v>0.0005461770020500135</v>
       </c>
     </row>
   </sheetData>
